--- a/archive/Datos_vendedores.xlsx
+++ b/archive/Datos_vendedores.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio Analitica\Analisis de Grandes Datos\AGD_ArquitecturaInformacion\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4F104FB7-34CA-4EA6-B695-6B42BAEBCAC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F844E7D-BB9A-4728-BA0D-F66689880C03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Origen" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -11234,7 +11245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12069,7 +12080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55428,11 +55439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55459,7 +55470,7 @@
         <v>3735</v>
       </c>
       <c r="F2" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A2,"','",B2,"')")</f>
+        <f t="shared" ref="F2:F47" si="0">+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A2,"','",B2,"')")</f>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('c826c40d7b19f62a09e2d7c5e7295ee2','7133')</v>
       </c>
       <c r="G2" t="s">
@@ -55474,7 +55485,7 @@
         <v>18110</v>
       </c>
       <c r="F3" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A3,"','",B3,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('cfb1a033743668a192316f3c6d1d2671','18110')</v>
       </c>
     </row>
@@ -55486,7 +55497,7 @@
         <v>31255</v>
       </c>
       <c r="F4" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A4,"','",B4,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('dd2bdf855a9172734fbc3744021ae9b9','31255')</v>
       </c>
     </row>
@@ -55498,7 +55509,7 @@
         <v>85851</v>
       </c>
       <c r="F5" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A5,"','",B5,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('54965bbe3e4f07ae045b90b0b8541f52','85851')</v>
       </c>
     </row>
@@ -55510,7 +55521,7 @@
         <v>4403</v>
       </c>
       <c r="F6" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A6,"','",B6,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('7ddcbb64b5bc1ef36ca8c151f6ec77df','4403')</v>
       </c>
     </row>
@@ -55522,7 +55533,7 @@
         <v>2016</v>
       </c>
       <c r="F7" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A7,"','",B7,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('7b07b3c7487f0ea825fc6df75abd658b','2016')</v>
       </c>
     </row>
@@ -55534,7 +55545,7 @@
         <v>6764</v>
       </c>
       <c r="F8" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A8,"','",B8,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8185694b58b2ba6de20fd41ae608bbea','6764')</v>
       </c>
     </row>
@@ -55546,7 +55557,7 @@
         <v>3702</v>
       </c>
       <c r="F9" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A9,"','",B9,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5c243662ce92d84573bfaff24c3e3700','3702')</v>
       </c>
     </row>
@@ -55558,7 +55569,7 @@
         <v>3933</v>
       </c>
       <c r="F10" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A10,"','",B10,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('4c2b230173bb36f9b240f2b8ac11786e','3933')</v>
       </c>
     </row>
@@ -55570,7 +55581,7 @@
         <v>32604</v>
       </c>
       <c r="F11" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A11,"','",B11,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('0df3984f9dfb3d49ac6366acbd3bbb85','32604')</v>
       </c>
     </row>
@@ -55582,7 +55593,7 @@
         <v>88056</v>
       </c>
       <c r="F12" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A12,"','",B12,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('83deb69e889cf80f82be1dc6d5f2d486','88056')</v>
       </c>
     </row>
@@ -55594,7 +55605,7 @@
         <v>14078</v>
       </c>
       <c r="F13" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A13,"','",B13,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('bd15ee794d5e640d9dd71b665b2ab15b','14078')</v>
       </c>
     </row>
@@ -55606,7 +55617,7 @@
         <v>4773</v>
       </c>
       <c r="F14" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A14,"','",B14,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('318f287a62ab7ac10b703ac37435a231','4773')</v>
       </c>
     </row>
@@ -55618,7 +55629,7 @@
         <v>11701</v>
       </c>
       <c r="F15" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A15,"','",B15,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('e9779976487b77c6d4ac45f75ec7afe9','11701')</v>
       </c>
     </row>
@@ -55630,7 +55641,7 @@
         <v>24451</v>
       </c>
       <c r="F16" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A16,"','",B16,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8b2492b7ff4468839593fafeed55bad9','24451')</v>
       </c>
     </row>
@@ -55642,7 +55653,7 @@
         <v>4461</v>
       </c>
       <c r="F17" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A17,"','",B17,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('0be8ff43f22e456b4e0371b2245e4d01','4461')</v>
       </c>
     </row>
@@ -55654,7 +55665,7 @@
         <v>89701</v>
       </c>
       <c r="F18" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A18,"','",B18,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('c731d18cea9bf687ffee82a241c25b11','89701')</v>
       </c>
     </row>
@@ -55666,7 +55677,7 @@
         <v>7097</v>
       </c>
       <c r="F19" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A19,"','",B19,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('beadbee30901a7f61d031b6b686095ad','7097')</v>
       </c>
     </row>
@@ -55678,7 +55689,7 @@
         <v>21840</v>
       </c>
       <c r="F20" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A20,"','",B20,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('634964b17796e64304cadf1ad3050fb7','21840')</v>
       </c>
     </row>
@@ -55690,7 +55701,7 @@
         <v>14050</v>
       </c>
       <c r="F21" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A21,"','",B21,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('cd68562d3f44870c08922d380acae552','14050')</v>
       </c>
     </row>
@@ -55702,7 +55713,7 @@
         <v>14940</v>
       </c>
       <c r="F22" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A22,"','",B22,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8160255418d5aaa7dbdc9f4c64ebda44','14940')</v>
       </c>
     </row>
@@ -55714,7 +55725,7 @@
         <v>16301</v>
       </c>
       <c r="F23" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A23,"','",B23,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('7142540dd4c91e2237acb7e911c4eba2','16301')</v>
       </c>
     </row>
@@ -55726,7 +55737,7 @@
         <v>14840</v>
       </c>
       <c r="F24" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A24,"','",B24,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('4869f7a5dfa277a7dca6462dcf3b52b2','14840')</v>
       </c>
     </row>
@@ -55738,7 +55749,7 @@
         <v>8250</v>
       </c>
       <c r="F25" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A25,"','",B25,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('2138ccb85b11a4ec1e37afbd1c8eda1f','8250')</v>
       </c>
     </row>
@@ -55750,7 +55761,7 @@
         <v>71070</v>
       </c>
       <c r="F26" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A26,"','",B26,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('44073f8b7e41514de3b7815dd0237f4f','71070')</v>
       </c>
     </row>
@@ -55762,7 +55773,7 @@
         <v>88115</v>
       </c>
       <c r="F27" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A27,"','",B27,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('aafe36600ce604f205b86b5084d3d767','88115')</v>
       </c>
     </row>
@@ -55774,7 +55785,7 @@
         <v>31710</v>
       </c>
       <c r="F28" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A28,"','",B28,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('0509040ea3fe50071181bbc359eb7738','31710')</v>
       </c>
     </row>
@@ -55786,7 +55797,7 @@
         <v>13330</v>
       </c>
       <c r="F29" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A29,"','",B29,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('9baf5cb77970f539089d09a38bcec5c3','13330')</v>
       </c>
     </row>
@@ -55798,7 +55809,7 @@
         <v>5849</v>
       </c>
       <c r="F30" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A30,"','",B30,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('6560211a19b47992c3666cc44a7e94c0','5849')</v>
       </c>
     </row>
@@ -55810,7 +55821,7 @@
         <v>14092</v>
       </c>
       <c r="F31" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A31,"','",B31,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('897060da8b9a21f655304d50fd935913','14092')</v>
       </c>
     </row>
@@ -55822,7 +55833,7 @@
         <v>12233</v>
       </c>
       <c r="F32" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A32,"','",B32,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8e6d7754bc7e0f22c96d255ebda59eba','12233')</v>
       </c>
     </row>
@@ -55834,7 +55845,7 @@
         <v>12327</v>
       </c>
       <c r="F33" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A33,"','",B33,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('70a12e78e608ac31179aea7f8422044b','12327')</v>
       </c>
     </row>
@@ -55846,7 +55857,7 @@
         <v>3679</v>
       </c>
       <c r="F34" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A34,"','",B34,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5a413ade68e8f8d93071a7f52a64cb9e','3679')</v>
       </c>
     </row>
@@ -55858,7 +55869,7 @@
         <v>4102</v>
       </c>
       <c r="F35" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A35,"','",B35,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('9f505651f4a6abe901a56cdc21508025','4102')</v>
       </c>
     </row>
@@ -55870,7 +55881,7 @@
         <v>16012</v>
       </c>
       <c r="F36" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A36,"','",B36,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('efcd8d2104f1a05d028af7bad20d974b','16012')</v>
       </c>
     </row>
@@ -55882,7 +55893,7 @@
         <v>12250</v>
       </c>
       <c r="F37" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A37,"','",B37,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5a93f3ab0ef4c84ed5e1b5dbf23978bc','12250')</v>
       </c>
     </row>
@@ -55894,7 +55905,7 @@
         <v>4782</v>
       </c>
       <c r="F38" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A38,"','",B38,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('955fee9216a65b617aa5c0531780ce60','4782')</v>
       </c>
     </row>
@@ -55906,7 +55917,7 @@
         <v>80610</v>
       </c>
       <c r="F39" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A39,"','",B39,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('c3cfdc648177fdbbbb35635a37472c53','80610')</v>
       </c>
     </row>
@@ -55918,7 +55929,7 @@
         <v>13324</v>
       </c>
       <c r="F40" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A40,"','",B40,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('f8db351d8c4c4c22c6835c19a46f01b0','13324')</v>
       </c>
     </row>
@@ -55930,7 +55941,7 @@
         <v>5186</v>
       </c>
       <c r="F41" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A41,"','",B41,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('ce20a2ec1514c25e16f2b5b39bc818f0','5186')</v>
       </c>
     </row>
@@ -55942,7 +55953,7 @@
         <v>3204</v>
       </c>
       <c r="F42" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A42,"','",B42,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('1025f0e2d44d7041d6cf58b6550e0bfa','3204')</v>
       </c>
     </row>
@@ -55954,7 +55965,7 @@
         <v>3694</v>
       </c>
       <c r="F43" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A43,"','",B43,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5670f4db5b62c43d542e1b2d56b0cf7c','3694')</v>
       </c>
     </row>
@@ -55966,7 +55977,7 @@
         <v>14802</v>
       </c>
       <c r="F44" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A44,"','",B44,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('974cf2cb8f4b7add98709c30df02fe10','14802')</v>
       </c>
     </row>
@@ -55978,7 +55989,7 @@
         <v>14020</v>
       </c>
       <c r="F45" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A45,"','",B45,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5f5a58930c3c35f3b5af264f34fb8c85','14020')</v>
       </c>
     </row>
@@ -55990,7 +56001,7 @@
         <v>6380</v>
       </c>
       <c r="F46" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A46,"','",B46,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('270d3ef21830ad0ecf3a6c53d08a533a','6380')</v>
       </c>
     </row>
@@ -56002,7 +56013,7 @@
         <v>1212</v>
       </c>
       <c r="F47" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A47,"','",B47,"')")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8b321bb669392f5163d04c59e235e066','1212')</v>
       </c>
     </row>

--- a/archive/Datos_vendedores.xlsx
+++ b/archive/Datos_vendedores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio Analitica\Analisis de Grandes Datos\AGD_ArquitecturaInformacion\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F844E7D-BB9A-4728-BA0D-F66689880C03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1BBA27-2879-4C89-B3EF-DCBB2B993F26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12083,8 +12083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3096"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A1475" workbookViewId="0">
+      <selection activeCell="B1486" sqref="B1486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55440,581 +55440,581 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3732</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3733</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2544</v>
       </c>
       <c r="B2">
         <v>7133</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>3735</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F47" si="0">+CONCATENATE("INSERT INTO ",$E$2," (",$A$1,",",$B$1,") VALUES ('",A2,"','",B2,"')")</f>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('c826c40d7b19f62a09e2d7c5e7295ee2','7133')</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="str">
+        <f>+CONCATENATE("INSERT INTO ",$G$2," (",$A$1,",",$B$1,") VALUES ('",A2,"','",B2,"');")</f>
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('c826c40d7b19f62a09e2d7c5e7295ee2','7133');</v>
+      </c>
+      <c r="I2" t="s">
         <v>3734</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>660</v>
       </c>
       <c r="B3">
         <v>18110</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('cfb1a033743668a192316f3c6d1d2671','18110')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H47" si="0">+CONCATENATE("INSERT INTO ",$G$2," (",$A$1,",",$B$1,") VALUES ('",A3,"','",B3,"');")</f>
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('cfb1a033743668a192316f3c6d1d2671','18110');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1178</v>
       </c>
       <c r="B4">
         <v>31255</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('dd2bdf855a9172734fbc3744021ae9b9','31255')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('dd2bdf855a9172734fbc3744021ae9b9','31255');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1891</v>
       </c>
       <c r="B5">
         <v>85851</v>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('54965bbe3e4f07ae045b90b0b8541f52','85851')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('54965bbe3e4f07ae045b90b0b8541f52','85851');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1960</v>
       </c>
       <c r="B6">
         <v>4403</v>
       </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('7ddcbb64b5bc1ef36ca8c151f6ec77df','4403')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('7ddcbb64b5bc1ef36ca8c151f6ec77df','4403');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>214</v>
       </c>
       <c r="B7">
         <v>2016</v>
       </c>
-      <c r="F7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('7b07b3c7487f0ea825fc6df75abd658b','2016')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('7b07b3c7487f0ea825fc6df75abd658b','2016');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3505</v>
       </c>
       <c r="B8">
         <v>6764</v>
       </c>
-      <c r="F8" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8185694b58b2ba6de20fd41ae608bbea','6764')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8185694b58b2ba6de20fd41ae608bbea','6764');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3425</v>
       </c>
       <c r="B9">
         <v>3702</v>
       </c>
-      <c r="F9" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5c243662ce92d84573bfaff24c3e3700','3702')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5c243662ce92d84573bfaff24c3e3700','3702');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2060</v>
       </c>
       <c r="B10">
-        <v>3933</v>
-      </c>
-      <c r="F10" t="str">
+        <v>2968</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('4c2b230173bb36f9b240f2b8ac11786e','3933')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('4c2b230173bb36f9b240f2b8ac11786e','2968');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1835</v>
       </c>
       <c r="B11">
         <v>32604</v>
       </c>
-      <c r="F11" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('0df3984f9dfb3d49ac6366acbd3bbb85','32604')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('0df3984f9dfb3d49ac6366acbd3bbb85','32604');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>448</v>
       </c>
       <c r="B12">
         <v>88056</v>
       </c>
-      <c r="F12" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('83deb69e889cf80f82be1dc6d5f2d486','88056')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('83deb69e889cf80f82be1dc6d5f2d486','88056');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>670</v>
       </c>
       <c r="B13">
-        <v>14078</v>
-      </c>
-      <c r="F13" t="str">
+        <v>14092</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('bd15ee794d5e640d9dd71b665b2ab15b','14078')</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('bd15ee794d5e640d9dd71b665b2ab15b','14092');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2208</v>
       </c>
       <c r="B14">
         <v>4773</v>
       </c>
-      <c r="F14" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('318f287a62ab7ac10b703ac37435a231','4773')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('318f287a62ab7ac10b703ac37435a231','4773');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>902</v>
       </c>
       <c r="B15">
         <v>11701</v>
       </c>
-      <c r="F15" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('e9779976487b77c6d4ac45f75ec7afe9','11701')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('e9779976487b77c6d4ac45f75ec7afe9','11701');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>291</v>
       </c>
       <c r="B16">
         <v>24451</v>
       </c>
-      <c r="F16" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8b2492b7ff4468839593fafeed55bad9','24451')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8b2492b7ff4468839593fafeed55bad9','24451');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3414</v>
       </c>
       <c r="B17">
         <v>4461</v>
       </c>
-      <c r="F17" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('0be8ff43f22e456b4e0371b2245e4d01','4461')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('0be8ff43f22e456b4e0371b2245e4d01','4461');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>517</v>
       </c>
       <c r="B18">
         <v>89701</v>
       </c>
-      <c r="F18" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('c731d18cea9bf687ffee82a241c25b11','89701')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('c731d18cea9bf687ffee82a241c25b11','89701');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3544</v>
       </c>
       <c r="B19">
         <v>7097</v>
       </c>
-      <c r="F19" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('beadbee30901a7f61d031b6b686095ad','7097')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('beadbee30901a7f61d031b6b686095ad','7097');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3052</v>
       </c>
       <c r="B20">
         <v>21840</v>
       </c>
-      <c r="F20" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('634964b17796e64304cadf1ad3050fb7','21840')</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('634964b17796e64304cadf1ad3050fb7','21840');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1290</v>
       </c>
       <c r="B21">
         <v>14050</v>
       </c>
-      <c r="F21" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('cd68562d3f44870c08922d380acae552','14050')</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('cd68562d3f44870c08922d380acae552','14050');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2808</v>
       </c>
       <c r="B22">
         <v>14940</v>
       </c>
-      <c r="F22" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8160255418d5aaa7dbdc9f4c64ebda44','14940')</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8160255418d5aaa7dbdc9f4c64ebda44','14940');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>436</v>
       </c>
       <c r="B23">
         <v>16301</v>
       </c>
-      <c r="F23" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('7142540dd4c91e2237acb7e911c4eba2','16301')</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('7142540dd4c91e2237acb7e911c4eba2','16301');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3203</v>
       </c>
       <c r="B24">
         <v>14840</v>
       </c>
-      <c r="F24" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('4869f7a5dfa277a7dca6462dcf3b52b2','14840')</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('4869f7a5dfa277a7dca6462dcf3b52b2','14840');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>855</v>
       </c>
       <c r="B25">
         <v>8250</v>
       </c>
-      <c r="F25" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('2138ccb85b11a4ec1e37afbd1c8eda1f','8250')</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('2138ccb85b11a4ec1e37afbd1c8eda1f','8250');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>207</v>
       </c>
       <c r="B26">
         <v>71070</v>
       </c>
-      <c r="F26" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('44073f8b7e41514de3b7815dd0237f4f','71070')</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('44073f8b7e41514de3b7815dd0237f4f','71070');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1432</v>
       </c>
       <c r="B27">
         <v>88115</v>
       </c>
-      <c r="F27" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('aafe36600ce604f205b86b5084d3d767','88115')</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('aafe36600ce604f205b86b5084d3d767','88115');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2962</v>
       </c>
       <c r="B28">
         <v>31710</v>
       </c>
-      <c r="F28" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('0509040ea3fe50071181bbc359eb7738','31710')</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('0509040ea3fe50071181bbc359eb7738','31710');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1499</v>
       </c>
       <c r="B29">
         <v>13330</v>
       </c>
-      <c r="F29" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('9baf5cb77970f539089d09a38bcec5c3','13330')</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('9baf5cb77970f539089d09a38bcec5c3','13330');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1097</v>
       </c>
       <c r="B30">
         <v>5849</v>
       </c>
-      <c r="F30" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('6560211a19b47992c3666cc44a7e94c0','5849')</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('6560211a19b47992c3666cc44a7e94c0','5849');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2311</v>
       </c>
       <c r="B31">
         <v>14092</v>
       </c>
-      <c r="F31" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('897060da8b9a21f655304d50fd935913','14092')</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('897060da8b9a21f655304d50fd935913','14092');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>462</v>
       </c>
       <c r="B32">
         <v>12233</v>
       </c>
-      <c r="F32" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8e6d7754bc7e0f22c96d255ebda59eba','12233')</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8e6d7754bc7e0f22c96d255ebda59eba','12233');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3524</v>
       </c>
       <c r="B33">
         <v>12327</v>
       </c>
-      <c r="F33" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('70a12e78e608ac31179aea7f8422044b','12327')</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('70a12e78e608ac31179aea7f8422044b','12327');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3492</v>
       </c>
       <c r="B34">
         <v>3679</v>
       </c>
-      <c r="F34" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5a413ade68e8f8d93071a7f52a64cb9e','3679')</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5a413ade68e8f8d93071a7f52a64cb9e','3679');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>434</v>
       </c>
       <c r="B35">
         <v>4102</v>
       </c>
-      <c r="F35" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('9f505651f4a6abe901a56cdc21508025','4102')</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('9f505651f4a6abe901a56cdc21508025','4102');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2629</v>
       </c>
       <c r="B36">
         <v>16012</v>
       </c>
-      <c r="F36" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('efcd8d2104f1a05d028af7bad20d974b','16012')</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('efcd8d2104f1a05d028af7bad20d974b','16012');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>606</v>
       </c>
       <c r="B37">
         <v>12250</v>
       </c>
-      <c r="F37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5a93f3ab0ef4c84ed5e1b5dbf23978bc','12250')</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5a93f3ab0ef4c84ed5e1b5dbf23978bc','12250');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>580</v>
       </c>
       <c r="B38">
         <v>4782</v>
       </c>
-      <c r="F38" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('955fee9216a65b617aa5c0531780ce60','4782')</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('955fee9216a65b617aa5c0531780ce60','4782');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>849</v>
       </c>
       <c r="B39">
         <v>80610</v>
       </c>
-      <c r="F39" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('c3cfdc648177fdbbbb35635a37472c53','80610')</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('c3cfdc648177fdbbbb35635a37472c53','80610');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3460</v>
       </c>
       <c r="B40">
         <v>13324</v>
       </c>
-      <c r="F40" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('f8db351d8c4c4c22c6835c19a46f01b0','13324')</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('f8db351d8c4c4c22c6835c19a46f01b0','13324');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3189</v>
       </c>
       <c r="B41">
         <v>5186</v>
       </c>
-      <c r="F41" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('ce20a2ec1514c25e16f2b5b39bc818f0','5186')</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('ce20a2ec1514c25e16f2b5b39bc818f0','5186');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3319</v>
       </c>
       <c r="B42">
         <v>3204</v>
       </c>
-      <c r="F42" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('1025f0e2d44d7041d6cf58b6550e0bfa','3204')</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('1025f0e2d44d7041d6cf58b6550e0bfa','3204');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>645</v>
       </c>
       <c r="B43">
         <v>3694</v>
       </c>
-      <c r="F43" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5670f4db5b62c43d542e1b2d56b0cf7c','3694')</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5670f4db5b62c43d542e1b2d56b0cf7c','3694');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3253</v>
       </c>
       <c r="B44">
         <v>14802</v>
       </c>
-      <c r="F44" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('974cf2cb8f4b7add98709c30df02fe10','14802')</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('974cf2cb8f4b7add98709c30df02fe10','14802');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1336</v>
       </c>
       <c r="B45">
         <v>14020</v>
       </c>
-      <c r="F45" t="str">
+      <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5f5a58930c3c35f3b5af264f34fb8c85','14020')</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('5f5a58930c3c35f3b5af264f34fb8c85','14020');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>289</v>
       </c>
       <c r="B46">
         <v>6380</v>
       </c>
-      <c r="F46" t="str">
+      <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('270d3ef21830ad0ecf3a6c53d08a533a','6380')</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('270d3ef21830ad0ecf3a6c53d08a533a','6380');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>502</v>
       </c>
       <c r="B47">
-        <v>1212</v>
-      </c>
-      <c r="F47" t="str">
+        <v>3448</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8b321bb669392f5163d04c59e235e066','1212')</v>
+        <v>INSERT INTO vendedor (seller_id,zip_code_prefix) VALUES ('8b321bb669392f5163d04c59e235e066','3448');</v>
       </c>
     </row>
   </sheetData>
